--- a/docs/Roots.xlsx
+++ b/docs/Roots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Mine\LP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B73BA2-9AD3-453D-A566-6EC14EB086AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D070F03F-8018-4197-AF51-C9E57BAF3DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4268568D-A048-4D06-9752-F2A98D35CC0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
   <si>
     <t>GET</t>
   </si>
@@ -57,27 +57,6 @@
     <t>/rooms</t>
   </si>
   <si>
-    <t>ROOM</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Obter a listagem de todos os quartos</t>
-  </si>
-  <si>
-    <t>Criar um novo quarto</t>
-  </si>
-  <si>
-    <t>Obter um quarto específico</t>
-  </si>
-  <si>
-    <t>Atualizar um quarto</t>
-  </si>
-  <si>
-    <t>Eliminar um quarto.</t>
-  </si>
-  <si>
     <t>Obter a listagem de todos os tipos de quarto</t>
   </si>
   <si>
@@ -156,9 +135,6 @@
     <t>Verificar disponibilidade das datas pretendidas</t>
   </si>
   <si>
-    <t>Obter as reservas do quarto</t>
-  </si>
-  <si>
     <t>Obter os packs afetados ao tipo de quarto</t>
   </si>
   <si>
@@ -292,6 +268,27 @@
   </si>
   <si>
     <t>/:email</t>
+  </si>
+  <si>
+    <t>/sign-out</t>
+  </si>
+  <si>
+    <t>Sign up an user</t>
+  </si>
+  <si>
+    <t>Sign in an user</t>
+  </si>
+  <si>
+    <t>Sign out an user</t>
+  </si>
+  <si>
+    <t>Verify an user state</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>û</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +363,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -402,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -488,6 +491,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -497,7 +520,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -526,33 +549,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,9 +573,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -579,9 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -593,35 +592,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -634,6 +685,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -948,7 +1004,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,27 +1021,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
@@ -998,30 +1054,30 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>55</v>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -1034,28 +1090,32 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>84</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="23"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -1068,26 +1128,30 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="23"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -1100,28 +1164,32 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="23"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
@@ -1134,26 +1202,30 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>84</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="23"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -1166,26 +1238,30 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="23"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
@@ -1198,26 +1274,30 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="42" t="s">
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="54" t="s">
+        <v>84</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="23"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
@@ -1230,18 +1310,18 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="23"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="23"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
@@ -1253,19 +1333,33 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="23"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
@@ -1278,18 +1372,30 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="23"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1302,18 +1408,30 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="23"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -1326,18 +1444,31 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="23"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -1350,6 +1481,14 @@
       <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1366,28 +1505,19 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="4"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="23"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
@@ -1400,309 +1530,268 @@
       <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="4"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="23"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="4"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="23"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="4"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="23"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="4"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="23"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="4"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="23"/>
+      <c r="P21" s="17"/>
       <c r="S21" s="7"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="4"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="23"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="21"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="15"/>
       <c r="J24" s="4"/>
       <c r="K24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="23"/>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="21"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="15"/>
       <c r="J25" s="4"/>
       <c r="K25" s="1"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="23"/>
+      <c r="P25" s="17"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="15"/>
       <c r="J26" s="4"/>
       <c r="K26" s="1"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="23"/>
+      <c r="P26" s="17"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="I27" s="15"/>
       <c r="J27" s="4"/>
       <c r="K27" s="1"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="23"/>
+      <c r="P27" s="17"/>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="21"/>
+      <c r="F28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="15"/>
       <c r="J28" s="4"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="17"/>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="21"/>
+      <c r="F29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="15"/>
       <c r="J29" s="4"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="23"/>
+      <c r="P29" s="17"/>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="D30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="21"/>
+      <c r="G30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="15"/>
       <c r="J30" s="4"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="23"/>
+      <c r="P30" s="17"/>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J31" s="1"/>
@@ -1711,82 +1800,82 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="21"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="15"/>
       <c r="J32" s="4"/>
       <c r="K32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="23"/>
+      <c r="P32" s="17"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="21"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="15"/>
       <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="23"/>
+      <c r="P33" s="17"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="D34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="21"/>
+      <c r="G34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="15"/>
       <c r="J34" s="4"/>
       <c r="K34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="23"/>
+      <c r="P34" s="17"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
@@ -1795,22 +1884,22 @@
         <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="I35" s="15"/>
       <c r="J35" s="4"/>
       <c r="K35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="23"/>
+      <c r="P35" s="17"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>3</v>
@@ -1819,37 +1908,37 @@
         <v>1</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="I36" s="15"/>
       <c r="J36" s="4"/>
       <c r="K36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="23"/>
+      <c r="P36" s="17"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="14" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="14" t="s">
+      <c r="D37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="21"/>
+      <c r="G37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="15"/>
       <c r="J37" s="4"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="23"/>
+      <c r="P37" s="17"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J38" s="1"/>
@@ -1858,82 +1947,82 @@
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13" t="s">
-        <v>28</v>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="23"/>
+      <c r="P39" s="17"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="D40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14" t="s">
-        <v>29</v>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="23"/>
+      <c r="P40" s="17"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="13" t="s">
+      <c r="D41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>30</v>
+      <c r="G41" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="23"/>
+      <c r="P41" s="17"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>3</v>
@@ -1942,22 +2031,22 @@
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="23"/>
+      <c r="P42" s="17"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>3</v>
@@ -1966,14 +2055,14 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="23"/>
+      <c r="P43" s="17"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J44" s="1"/>
@@ -1982,132 +2071,132 @@
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="14" t="s">
+      <c r="B45" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14" t="s">
-        <v>50</v>
+      <c r="D45" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="23"/>
+      <c r="P45" s="17"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="18"/>
-      <c r="C46" s="14" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14" t="s">
-        <v>51</v>
+      <c r="D46" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="23"/>
+      <c r="P46" s="17"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="23"/>
+      <c r="P47" s="17"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="13" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="23"/>
+      <c r="P48" s="17"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-      <c r="C49" s="14" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14" t="s">
-        <v>53</v>
+      <c r="D49" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="23"/>
+      <c r="P49" s="17"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14" t="s">
-        <v>69</v>
+      <c r="D50" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="23"/>
+      <c r="P50" s="17"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J51" s="1"/>
@@ -2116,203 +2205,207 @@
       <c r="P51" s="1"/>
     </row>
     <row r="52" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="13" t="s">
+      <c r="B52" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="13" t="s">
+      <c r="D52" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F52" s="10"/>
-      <c r="G52" s="13" t="s">
-        <v>60</v>
+      <c r="G52" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="23"/>
+      <c r="P52" s="17"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="C53" s="14" t="s">
+      <c r="B53" s="30"/>
+      <c r="C53" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="14" t="s">
+      <c r="D53" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14" t="s">
-        <v>61</v>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="23"/>
+      <c r="P53" s="17"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="C54" s="13" t="s">
+      <c r="B54" s="30"/>
+      <c r="C54" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>62</v>
+      <c r="D54" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="23"/>
+      <c r="P54" s="17"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="23"/>
+      <c r="P55" s="17"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="13" t="s">
+      <c r="B56" s="30"/>
+      <c r="C56" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>63</v>
+      <c r="D56" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-      <c r="P56" s="23"/>
+      <c r="P56" s="17"/>
     </row>
     <row r="57" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-      <c r="P57" s="23"/>
+      <c r="P57" s="17"/>
     </row>
     <row r="58" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="P58" s="23"/>
+      <c r="P58" s="17"/>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="17"/>
-      <c r="C59" s="13" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>71</v>
+      <c r="D59" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="P59" s="23"/>
+      <c r="P59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+  <mergeCells count="20">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B52:B59"/>
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B16:B21"/>
     <mergeCell ref="B23:B30"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
